--- a/static/data/python/sample exams/Brunswick/Brunswick_exam_sample_020.xlsx
+++ b/static/data/python/sample exams/Brunswick/Brunswick_exam_sample_020.xlsx
@@ -31,339 +31,339 @@
     <t>System</t>
   </si>
   <si>
-    <t>(600000AA2.16) Ability to determine and/or interpret the following as they apply to (APE 24) PLANT FIRE ON SITE: (CFR: 41.10 / 43.5 / 45.13) Vital equipment and control systems to be maintained and operated during a fire</t>
-  </si>
-  <si>
-    <t>(295019AA1.01) Ability to operate and/or monitor the following as they apply to (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR: (CFR: 41.7 / 45.6) Backup air supply</t>
-  </si>
-  <si>
-    <t>(295004) (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER (G2.4.34) EMERGENCY PROCEDURES / PLAN Knowledge of RO responsibilities outside the main control room during an emergency (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295031EK3.01) Knowledge of the reasons for the following responses or actions as they apply to (EPE 8) REACTOR LOW WATER LEVEL: (CFR: 41.5 / 45.6) Automatic depressurization system actuation</t>
-  </si>
-  <si>
-    <t>(295026EK2.08) Knowledge of the relationship between the (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE and the following systems or components: (CFR: 41.7 / 45.8) RCIC</t>
-  </si>
-  <si>
-    <t>(295006AK1.03) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 6) SCRAM:(CFR: 41.8 to 41.10) Reactivity control</t>
-  </si>
-  <si>
-    <t>(700000AA2.01) Ability to determine and/or interpret the following as they apply to (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES: (CFR: 41.5 / 43.5 / 45.5 / 45.7 / 45.8) Operating point on the generator capability curve</t>
-  </si>
-  <si>
-    <t>(295027EA1.02) Ability to operate and/or monitor the following as they apply to (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.7 / 45.6) Containment ventilation/cooling</t>
-  </si>
-  <si>
-    <t>(295018) (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW) (G2.2.35) EQUIPMENT CONTROL Ability to determine technical specification mode of operation (CFR: 41.7 / 41.10 / 43.2 / 45.13)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(295005AK3.07) Knowledge of the reasons for the following responses or actions as they apply to (APE 5) MAIN TURBINE GENERATOR TRIP: (CFR: 41.5 / 45.6) Turbine bypass valve operation </t>
-  </si>
-  <si>
-    <t>(295025EK2.05) Knowledge of the relationship between the (EPE 2) HIGH REACTOR PRESSURE and the following systems or components: (CFR: 41.7 / 45.8) Safety/relief valves</t>
+    <t>(295037EK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.8 to 41.10) Reactor water level effects on reactor power</t>
+  </si>
+  <si>
+    <t>(295016AK2.04) Knowledge of the relationship between the (APE 16) CONTROL ROOM ABANDONMENT and the following systems or components: (CFR: 41.7 / 45.8) AC electrical distribution</t>
+  </si>
+  <si>
+    <t>(295005AA2.04) Ability to determine and/or interpret the following as they apply to (APE 5) MAIN TURBINE GENERATOR TRIP: (CFR: 41.10 / 43.5 / 45.13) Reactor pressure</t>
+  </si>
+  <si>
+    <t>(295026EK3.05) Knowledge of the reasons for the following responses or actions as they apply to (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE: (CFR: 41.5 / 45.6) Reactor SCRAM</t>
+  </si>
+  <si>
+    <t>(600000AA1.05) Ability to operate and/or monitor the following as they apply to (APE 24) PLANT FIRE ON SITE: (CFR: 41.7 / 45.5 / 45.6): Plant and control room ventilation systems</t>
+  </si>
+  <si>
+    <t>(295004) (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER (G2.1.3) CONDUCT OF OPERATIONS Knowledge of shift or short-term relief turnover practices (CFR: 41.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295031EK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 8) REACTOR LOW WATER LEVEL: (CFR: 41.8 to 41.10) Adequate core cooling</t>
+  </si>
+  <si>
+    <t>(295018AK2.05) Knowledge of the relationship between the (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW) and the following systems or components: (CFR: 41.7 / 45.8) RHR/LPCI</t>
+  </si>
+  <si>
+    <t>(295006AA2.06) Ability to determine and/or interpret the following as they apply to (APE 6) SCRAM: (CFR: 41.10 / 43.5 / 45.13) Cause of reactor SCRAM</t>
+  </si>
+  <si>
+    <t>(295021AK3.05) Knowledge of the reasons for the following responses or actions as they apply to (APE 21) LOSS OF SHUTDOWN COOLING: (CFR: 41.5 / 45.6) Establishing alternate heat removal flow paths</t>
+  </si>
+  <si>
+    <t>(295003AA1.04) Ability to operate and/or monitor the following as they apply to (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER: (CFR: 41.7 / 45.6) DC electrical distribution system</t>
+  </si>
+  <si>
+    <t>(295024) (EPE 1) HIGH DRYWELL PRESSURE (G2.2.21) EQUIPMENT CONTROL Knowledge of pre- and post-maintenance operability requirements (CFR: 41.10 / 43.2)</t>
+  </si>
+  <si>
+    <t>(295025EK1.07) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.8 to 41.10) Pressure control strategies</t>
+  </si>
+  <si>
+    <t>(295027EK2.05) Knowledge of the relationship between the (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY) and the following systems or components: (CFR: 41.7 / 45.8) Safety relief valves</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(295019AA2.01) Ability to determine and/or interpret the following as they apply to (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR: (CFR: 41.10 / 43.5 / 45.13) Instrument air pressure </t>
+  </si>
+  <si>
+    <t>(295023AK3.01) Knowledge of the reasons for the following responses or actions as they apply to (APE 23) REFUELING ACCIDENTS: (CFR: 41.5 / 45.6) Personnel evacuation</t>
+  </si>
+  <si>
+    <t>(700000AA1.02) Ability to operate and/or monitor the following as they apply to (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES: (CFR: 41.5 / 41.10 / 45.5 / 45.7 / 45.8) Turbine/generator controls</t>
+  </si>
+  <si>
+    <t>(295001) (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION (G2.2.38) EQUIPMENT CONTROL Knowledge of conditions and limitations in the facility license (CFR: 41.7 / 41.10 / 43.1 / 45.13)</t>
   </si>
   <si>
     <t>(295030EK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 7) LOW SUPPRESSION POOL WATER LEVEL: (CFR: 41.8 to 41.10) Steam condensation</t>
   </si>
   <si>
-    <t>(295001AA2.03) Ability to determine and/or interpret the following as they apply to (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.10 / 43.5 / 45.13) Core flow</t>
-  </si>
-  <si>
-    <t>(295038EA1.03) Ability to operate and/or monitor the following as they apply to (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.7 / 45.6) Process radiation monitoring system</t>
-  </si>
-  <si>
-    <t>(295024) (EPE 1) HIGH DRYWELL PRESSURE (G2.4.26) EMERGENCY PROCEDURES / PLAN Knowledge of facility protection requirements, including fire brigade and portable firefighting equipment usage (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(295021AK3.06) Knowledge of the reasons for the following responses or actions as they apply to (APE 21) LOSS OF SHUTDOWN COOLING: (CFR: 41.5 / 45.6) Installing fuel pool gates</t>
-  </si>
-  <si>
-    <t>(295023AK2.10) Knowledge of the relationship between the (APE 23) REFUELING ACCIDENTS and the following systems or components: (CFR: 41.7 / 45.8) Nuclear instrumentation</t>
-  </si>
-  <si>
-    <t>(295003AK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER:(CFR: 41.8 to 41.10) Load shedding</t>
-  </si>
-  <si>
-    <t>(295037EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.10 / 43.5 / 45.13) Reactor power</t>
-  </si>
-  <si>
-    <t>(295016AA1.09) Ability to operate and/or monitor the following as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.7 / 45.6) Isolation condensers (Nine Mile Point 1, Dresden)</t>
-  </si>
-  <si>
-    <t>(295014AK3.03) Knowledge of the reasons for the following responses or actions as they apply to (APE 14) INADVERTENT REACTIVITY ADDITION: (CFR: 41.5 / 45.6) Changing recirculation flow</t>
-  </si>
-  <si>
-    <t>(295017AK2.12) Knowledge of the relationship between the (APE 17) ABNORMAL OFFSITE RELEASE RATE and the following systems or components: (CFR: 41.7 / 45.8) SGTS/FRVS</t>
-  </si>
-  <si>
-    <t>(295009AK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 9) LOW REACTOR WATER LEVEL: (CFR: 41.8 to 41.10) Recirculation pump net positive suction head</t>
-  </si>
-  <si>
-    <t>(295034EA2.02) Ability to determine and/or interpret the following as they apply to (EPE 11) SECONDARY CONTAINMENT VENTILATION HIGH RADIATION: (CFR: 41.10 / 43.5 / 45.13) Source of high radiation levels</t>
-  </si>
-  <si>
-    <t>(295029EA1.01) Ability to operate and/or monitor the following as they apply to (EPE 6) HIGH SUPPRESSION POOL WATER LEVEL: (CFR: 41.7 / 45.6) HPCI</t>
-  </si>
-  <si>
-    <t>(295002) (APE 2) LOSS OF MAIN CONDENSER VACUUM (G2.4.6) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures major action categories (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(211000A3.08) Ability to monitor automatic operation of the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM including: (CFR: 41.7 / 45.7) System initiation</t>
-  </si>
-  <si>
-    <t>(510000A1.09) Ability to predict and/or monitor changes in parameters associated with operation of the (SF4 SWS*) SERVICE WATER SYSTEM including: (CFR: 41.5 / 45.5) Strainer differential pressure</t>
-  </si>
-  <si>
-    <t>(215004K3.01) Knowledge of the effect that a loss or malfunction of the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) RPS</t>
-  </si>
-  <si>
-    <t>(262002K1.03) Knowledge of the physical connections and/or cause and effect relationships between the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) RPIS</t>
-  </si>
-  <si>
-    <t>(217000K2.05) (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) Knowledge of electrical power supplies to the following: (CFR: 41.7) Water leg pump</t>
-  </si>
-  <si>
-    <t>(218000K4.04) Knowledge of (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Ensure adequate pneumatic supply to ADS valves</t>
-  </si>
-  <si>
-    <t>(203000A2.15) Ability to (a) predict the impacts of the following on the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loop selection logic failure</t>
-  </si>
-  <si>
-    <t>(223002K5.01) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF : (CFR: 41.5 / 45.3) Primary containment integrity</t>
-  </si>
-  <si>
-    <t>(264000A4.01) Ability to manually operate and/or monitor the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) in the control room: (CFR: 41.7 / 45.5 to 45.8) Voltage/frequency</t>
-  </si>
-  <si>
-    <t>(239002K6.01) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF3 SRV) SAFETY RELIEF VALVES: (CFR: 41.7 / 45.5 to 45.8) Nuclear boiler instrument system (pressure indication)</t>
-  </si>
-  <si>
-    <t>(263000) (SF6 DC) DC ELECTRICAL DISTRIBUTION (G2.1.19) CONDUCT OF OPERATIONS Ability to use available indications to evaluate system or component status (CFR: 41.10 / 45.12)</t>
-  </si>
-  <si>
-    <t>(209001A3.02) Ability to monitor automatic operation of the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM including: (CFR: 41.7 / 45.7) Pump start</t>
-  </si>
-  <si>
-    <t>(205000A1.06) Ability to predict and/or monitor changes in parameters associated with operation of the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) including: (CFR: 41.5 / 45.5) Temperatures</t>
-  </si>
-  <si>
-    <t>(400000K3.05) Knowledge of the effect that a loss or malfunction of the (SF8 CCS) COMPONENT COOLING WATER SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.6) Control rod drive hydraulic system</t>
-  </si>
-  <si>
-    <t>(262001K1.03) Knowledge of the physical connections and/or cause and effect relationships between the (SF6 AC) AC ELECTRICAL DISTRIBUTION and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Offsite power system</t>
-  </si>
-  <si>
-    <t>(215003K2.01) (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) IRM channels/detectors</t>
-  </si>
-  <si>
-    <t>(212000K4.13) Knowledge of (SF7 RPS) REACTOR PROTECTION SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Underfrequency, overvoltage, and undervoltage protection</t>
-  </si>
-  <si>
-    <t>(259002A2.04) Ability to (a) predict the impacts of the following on the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) RFP runout condition</t>
-  </si>
-  <si>
-    <t>(261000K5.01) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM : (CFR: 41.5 / 45.3) Heat removal mechanisms</t>
-  </si>
-  <si>
-    <t>(300000A4.03) Ability to manually operate and/or monitor the (SF8 IA) INSTRUMENT AIR SYSTEM in the control room: (CFR: 41.8 / 45.5 to 45.8) Manual isolations</t>
-  </si>
-  <si>
-    <t>(215005K6.08) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR: (CFR: 41.7 / 45.7) Uninterruptable power supply (AC/DC)</t>
-  </si>
-  <si>
-    <t>(209002) (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM  (291004K1.14) PUMPS (CFR: 41.3) (CENTRIFUGAL) Relationship between flow from a pump and suction heads</t>
-  </si>
-  <si>
-    <t>(211000A3.09) Ability to monitor automatic operation of the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM including: (CFR: 41.7 / 45.7) Pump trip</t>
-  </si>
-  <si>
-    <t>(510000A1.08) Ability to predict and/or monitor changes in parameters associated with operation of the (SF4 SWS*) SERVICE WATER SYSTEM including: (CFR: 41.5 / 45.5) Intake screen differential pressure/level</t>
-  </si>
-  <si>
-    <t>(215004K3.04) Knowledge of the effect that a loss or malfunction of the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Reactor power indication</t>
-  </si>
-  <si>
-    <t>(262002K1.12) Knowledge of the physical connections and/or cause and effect relationships between the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Main turbine generator and auxiliary systems</t>
-  </si>
-  <si>
-    <t>(510001K6.02) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF8 CWS*) CIRCULATING WATER SYSTEM: (CFR: 41.7 / 45.7) Cooling tower level control valve malfunction</t>
-  </si>
-  <si>
-    <t>(290001) (SF5 SC) SECONDARY CONTAINMENT (G2.1.38) CONDUCT OF OPERATIONS Knowledge of the station’s requirements for verbal communications when implementing procedures (CFR: 41.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(234000A3.02) Ability to monitor automatic operation of the (SF8 FH) FUEL HANDLING including: (CFR: 41.7 / 45.7) Interlock operation</t>
-  </si>
-  <si>
-    <t>(245000A1.11) Ability to predict and/or monitor changes in parameters associated with operation of the (SF4 MTGEN) MAIN TURBINE GENERATOR AND AUXILIARY SYSTEMS including: (CFR: 41.5 / 45.5) Turbine lube oil pressure</t>
-  </si>
-  <si>
-    <t>(226001K3.03) Knowledge of the effect that a loss or malfunction of the (SF5 RHR CSS) RHR/LPCI: CONTAINMENT SPRAY MODE SYSTEM MODE will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Containment/drywell/suppression chamber components, continued operation with elevated pressure or temperature or level</t>
-  </si>
-  <si>
-    <t>(271000K1.04) Knowledge of the physical connections and/or cause and effect relationships between the (SF9 OG) OFFGAS SYSTEM and the following systems: (CFR: 41.4 / 41.5 / 41.7 / 41.14 / 45.6 to 45.8) Reactor condensate system</t>
+    <t>(295038EK2.06) Knowledge of the relationship between the (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE and the following systems or components: (CFR: 41.7 / 45.8) Process radiation monitoring system</t>
+  </si>
+  <si>
+    <t>(295014AK3.01) Knowledge of the reasons for the following responses or actions as they apply to (APE 14) INADVERTENT REACTIVITY ADDITION: (CFR: 41.5 / 45.6) Reactor SCRAM</t>
+  </si>
+  <si>
+    <t>(295013AA1.02) Ability to operate and/or monitor the following as they apply to (APE 13) HIGH SUPPRESSION POOL TEMPERATURE.: (CFR: 41.7 / 45.6) Systems that add heat to the suppression pool</t>
+  </si>
+  <si>
+    <t>(295020) (APE 20) INADVERTENT CONTAINMENT ISOLATION (G2.4.47) EMERGENCY PROCEDURES / PLAN Ability to diagnose and recognize trends in an accurate and timely manner using the appropriate control room reference material (reference potential) (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295033EK1.05) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 10) HIGH SECONDARY CONTAINMENT AREA RADIATION LEVELS: (CFR: 41.8 to 41.10) Maximum safe operating radiation limit</t>
+  </si>
+  <si>
+    <t>(295029EK2.05) Knowledge of the relationship between the (EPE 6) HIGH SUPPRESSION POOL WATER LEVEL and the following systems or components: (CFR: 41.7 / 45.8) Containment/drywell vacuum breakers</t>
+  </si>
+  <si>
+    <t>(295032EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 9) HIGH SECONDARY CONTAINMENT AREA TEMPERATURE: (CFR: 41.10 / 43.5 / 45.13) Area temperature</t>
+  </si>
+  <si>
+    <t>(203000K5.03) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6): (CFR: 41.5 / 45.3) Vortex limits</t>
+  </si>
+  <si>
+    <t>(262002K4.01) Knowledge of (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) design features and/or interlocks that provide for the following: (CFR: 41.7) Transfer of power supplies</t>
+  </si>
+  <si>
+    <t>(400000K3.08) Knowledge of the effect that a loss or malfunction of the (SF8 CCS) COMPONENT COOLING WATER SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.6) Residual heat removal system</t>
+  </si>
+  <si>
+    <t>(510000A2.03) Ability to (a) predict the impacts of the following on the (SF4 SWS*) SERVICE WATER SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.1 / 41.5 / 43.5 / 45.3 / 45.6 / 45.13) Intake/discharge blockage</t>
+  </si>
+  <si>
+    <t>(211000A1.01) Ability to predict and/or monitor changes in parameters associated with operation of the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM including: (CFR: 41.5 / 45.5) Tank level</t>
+  </si>
+  <si>
+    <t>(300000) (SF8 IA) INSTRUMENT AIR SYSTEM (G2.2.12) EQUIPMENT CONTROL Knowledge of surveillance procedures (CFR: 41.10 / 43.2 / 45.13)</t>
+  </si>
+  <si>
+    <t>(215004A4.05) Ability to manually operate and/or monitor the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) SRMS back panel switches, meters, and indicating lights</t>
+  </si>
+  <si>
+    <t>(209001K6.05) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM : (CFR: 41.7 / 45.7) ECCS room cooler(s)</t>
+  </si>
+  <si>
+    <t>(215003K1.01) Knowledge of the physical connections and/or cause and effect relationships between the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) RPS</t>
+  </si>
+  <si>
+    <t>(215005A3.05) Ability to monitor automatic operation of the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR including: (CFR: 41.7 / 45.7) Flow converter/comparator signals</t>
+  </si>
+  <si>
+    <t>(239002K2.01) (SF3 SRV) SAFETY RELIEF VALVES Knowledge of electrical power supplies to the following: (CFR: 41.7) SRV solenoids</t>
+  </si>
+  <si>
+    <t>(261000K5.05) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM : (CFR: 41.5 / 45.3) Fuel handling building pressure changes</t>
+  </si>
+  <si>
+    <t>(217000K4.13) Knowledge of (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) design features and/or interlocks that provide for the following: (CFR: 41.7) Turbine speed control</t>
+  </si>
+  <si>
+    <t>(263000K3.02) Knowledge of the effect that a loss or malfunction of the (SF6 DC) DC ELECTRICAL DISTRIBUTION will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Operationally significant systems using DC control power</t>
+  </si>
+  <si>
+    <t>(218000A2.04) Ability to (a) predict the impacts of the following on the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) ADS failure to initiate</t>
+  </si>
+  <si>
+    <t>(209002A1.10) Ability to predict and/or monitor changes in parameters associated with operation of the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM including: (CFR: 41.5 / 45.5) Lights and alarms</t>
+  </si>
+  <si>
+    <t>(212000) (SF7 RPS) REACTOR PROTECTION SYSTEM  (291004K1.13) PUMPS (CFR: 41.3) (CENTRIFUGAL) Theory of operation of a centrifugal pump</t>
+  </si>
+  <si>
+    <t>(223002A4.04) Ability to manually operate and/or monitor the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF in the control room: (CFR: 41.7 / 45.5 to 45.8) System indicating lights and alarms</t>
+  </si>
+  <si>
+    <t>(205000K6.10) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE): (CFR: 41.7 / 45.7) Fuel pool cooling and cleanup</t>
+  </si>
+  <si>
+    <t>(264000K1.04) Knowledge of the physical connections and/or cause and effect relationships between the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Component cooling water system</t>
+  </si>
+  <si>
+    <t>(259002A3.01) Ability to monitor automatic operation of the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM including: (CFR: 41.7 / 45.7) Runout flow control</t>
+  </si>
+  <si>
+    <t>(262001K2.03) (SF6 AC) AC ELECTRICAL DISTRIBUTION Knowledge of electrical power supplies to the following: (CFR: 41.7) Major motor control centers/buses (480 volts and higher)</t>
+  </si>
+  <si>
+    <t>(203000K5.04) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6): (CFR: 41.5 / 45.3) NPSH limits</t>
+  </si>
+  <si>
+    <t>(262002K6.02) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC): (CFR: 41.7 / 45.7) DC electrical distribution</t>
+  </si>
+  <si>
+    <t>(400000K3.01) Knowledge of the effect that a loss or malfunction of the (SF8 CCS) COMPONENT COOLING WATER SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.6) Loads cooled by CCW</t>
+  </si>
+  <si>
+    <t>(510000A2.07) Ability to (a) predict the impacts of the following on the (SF4 SWS*) SERVICE WATER SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.1 / 41.5 / 43.5 / 45.3 / 45.6 / 45.13) Abnormal intake water temperature</t>
+  </si>
+  <si>
+    <t>(230000A3.01) Ability to monitor automatic operation of the (SF5 RHR SPS) RHR/LPCI: TORUS/SUPPRESSION POOL SPRAY MODE including: (CFR: 41.7 / 45.7) Valve operation</t>
   </si>
   <si>
     <t>(201005K2.01) (SF1, SF7 RCIS) ROD CONTROL AND INFORMATION SYSTEM (BWR 6) Knowledge of electrical power supplies to the following: (CFR: 41.6 / 41.7) RCIS</t>
   </si>
   <si>
-    <t>(256000K4.06) Knowledge of (SF2 CDS) CONDENSATE SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Control of extraction steam</t>
-  </si>
-  <si>
-    <t>(290003A2.05) Ability to (a) predict the impacts of the following on the (SF9 CRV) CONTROL ROOM VENTILATION and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of chillers</t>
-  </si>
-  <si>
-    <t>(201003K5.08) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF1 CRDM) CONTROL ROD AND DRIVE MECHANISM: (CFR: 41.1-6 / 45.1-6) How control rods affect shutdown margin</t>
-  </si>
-  <si>
-    <t>(202002A4.10) Ability to manually operate and/or monitor the (SF1 RSCTL) RECIRCULATION FLOW CONTROL SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Flow control valve</t>
-  </si>
-  <si>
-    <t>(G2.1.43) CONDUCT OF OPERATIONS Ability to use an online power distribution monitoring system and/or procedures to determine the effects on reactivity of plant changes, such as RCS temperature, secondary plant, or fuel depletion (CFR: 41.10 / 43.6 / 45.6)</t>
-  </si>
-  <si>
-    <t>(G2.1.47) CONDUCT OF OPERATIONS Ability to direct nonlicensed personnel activities inside the control room (CFR: 41.10 / 43.5 / 45.5 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.44) EQUIPMENT CONTROL Ability to interpret control room indications to verify the status and operation of a system and understand how operator actions and directives affect plant and system conditions (CFR: 41.5 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.2.39) EQUIPMENT CONTROL Knowledge of less than or equal to 1 hour technical specification action statements (This K/A does not include action statements of 1 hour or less that follow the expiration of a completion time for a technical specification condition for which an action statement has already been entered.) (CFR: 41.7 / 41.10 / 43.2 / 45.13)</t>
+    <t>(226001K5.07) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF5 RHR CSS) RHR/LPCI: CONTAINMENT SPRAY MODE SYSTEM MODE : (CFR: 41.5 / 45.3) Pressure suppression pressure</t>
+  </si>
+  <si>
+    <t>(510001K4.02) Knowledge of (SF8 CWS*) CIRCULATING WATER SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Cooling tower cold weather operations</t>
+  </si>
+  <si>
+    <t>(201001K3.03) Knowledge of the effect that a loss or malfunction of the (SF1 CRDH) CRD HYDRAULIC SYSTEM will have on the following systems or system parameters: (CFR: 41.5-7 / 45.1-3 / 45.5-6 / 45.8 / 45.10 / 45.12) Control rod drive mechanisms</t>
+  </si>
+  <si>
+    <t>(216000A2.08) Ability to (a) predict the impacts of the following on the (SF7 NBI) NUCLEAR BOILER INSTRUMENTATION and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Elevated containment temperature</t>
+  </si>
+  <si>
+    <t>(271000A1.04) Ability to predict and/or monitor changes in parameters associated with operation of the (SF9 OG) OFFGAS SYSTEM including: (CFR: 41.5 / 45.3 / 45.5) Recombiner catalyst temperature</t>
+  </si>
+  <si>
+    <t>(256000) (SF2 CDS) CONDENSATE SYSTEM (G2.2.35) EQUIPMENT CONTROL Ability to determine technical specification mode of operation (CFR: 41.7 / 41.10 / 43.2 / 45.13)</t>
+  </si>
+  <si>
+    <t>(239003A4.04) Ability to manually operate and/or monitor the (SF9 MSVLCS) MAIN STEAM ISOLATION VALVE LEAKAGE CONTROL SYSTEM (BWR 4, 5, 6) in the control room: (CFR: 41.7 / 45.5 to 45.8) Dilution air flows</t>
+  </si>
+  <si>
+    <t>(215001K6.03) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF7 TIP) TRAVERSING IN CORE PROBE: (CFR: 41.7 / 45.7) Plant process computer/parameter display systems</t>
+  </si>
+  <si>
+    <t>(204000K1.11) Knowledge of the physical connections and/or cause and effect relationships between the (SF2 RWCU) REACTOR WATER CLEANUP SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) PCIS/NSSSS</t>
+  </si>
+  <si>
+    <t>(G2.1.41) CONDUCT OF OPERATIONS Knowledge of the refueling process (CFR: 41.2 / 41.10 / 43.6 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.1.15) CONDUCT OF OPERATIONS Knowledge of administrative requirements for temporary management direction, such as standing orders, night orders, or operations memoranda (CFR: 41.10 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.2.4) EQUIPMENT CONTROL (Multi-unit license) Ability to explain the variations in control room layouts, systems, instrumentation, or procedural actions between units at a facility (CFR: 41.6 / 41.7 / 41.10 / 45.1 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.1) EQUIPMENT CONTROL Ability to perform pre-startup procedures for the facility, including operating those controls associated with plant equipment that could affect reactivity (CFR: 41.5 / 41.10 / 43.5 / 43.6 / 45.1)</t>
+  </si>
+  <si>
+    <t>(G2.3.12) RADIATION CONTROL Knowledge of radiological safety principles and procedures pertaining to licensed operator duties, such as response to radiation monitor alarms, containment entry requirements, fuel handling responsibilities, access to locked high-radiation areas, or alignment of filters (CFR: 41.12 / 43.4 / 45.9 / 45.10)</t>
+  </si>
+  <si>
+    <t>(G2.4.20) EMERGENCY PROCEDURES / PLAN Knowledge of the operational implications of emergency and abnormal operating procedures warnings, cautions, and notes (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(292003K1.06) REACTOR KINETICS AND NEUTRON SOURCES (CFR: 41.1) Explain the effect of delayed neutrons on reactor period</t>
+  </si>
+  <si>
+    <t>(292007K1.03) FUEL DEPLETION AND BURNABLE POISONS (CFR: 41.1) Given a curve of K-effective versus core age, state the reasons for maximum, minimum, and inflection points</t>
+  </si>
+  <si>
+    <t>(292004K1.05) REACTIVITY COEFFICIENTS (CFR: 41.1) Define the fuel temperature (Doppler) coefficient of reactivity</t>
+  </si>
+  <si>
+    <t>(293009K1.13) CORE THERMAL LIMITS (CFR: 41.14) (MAPLHGR) Define MAPLHGR</t>
+  </si>
+  <si>
+    <t>(293007K1.12) HEAT TRANSFER (CFR: 41.14) (CORE THERMAL POWER) Define percent reactor power</t>
+  </si>
+  <si>
+    <t>(293005K1.05) THERMODYNAMIC CYCLES (CFR: 41.14) State the advantages of moisture separators/reheaters and feedwater heaters for a typical steam cycle</t>
+  </si>
+  <si>
+    <t>(295037) (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN (G2.2.44) EQUIPMENT CONTROL Ability to interpret control room indications to verify the status and operation of a system and understand how operator actions and directives affect plant and system conditions (CFR: 41.5 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295016AA2.06) Ability to determine and/or interpret the following as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.10 / 43.5 / 45.13) Cooldown rate</t>
+  </si>
+  <si>
+    <t>(295005) (APE 5) MAIN TURBINE GENERATOR TRIP (G2.4.17) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures terms and definitions (CFR: 41.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295026EA2.02) Ability to determine and/or interpret the following as they apply to (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE: (CFR: 41.10 / 43.5 / 45.13) Suppression pool level</t>
+  </si>
+  <si>
+    <t>(600000) (APE 24) PLANT FIRE ON SITE (G2.4.25) EMERGENCY PROCEDURES / PLAN Knowledge of fire protection procedures (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(295004AA2.01) Ability to determine and/or interpret the following as they apply to (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER: (CFR: 41.10 / 43.5 / 45.13) Partial or complete loss of DC power </t>
+  </si>
+  <si>
+    <t>(295031) (EPE 8) REACTOR LOW WATER LEVEL (G2.4.46) EMERGENCY PROCEDURES / PLAN Ability to verify that the alarms are consistent with the plant conditions (CFR: 41.10 / 43.5 / 45.3 / 45.12)</t>
+  </si>
+  <si>
+    <t>(500000) (EPE 16) HIGH CONTAINMENT HYDROGEN CONCENTRATION (G2.4.12) EMERGENCY PROCEDURES / PLAN Knowledge of operating crew responsibilities during emergency and abnormal operations (CFR: 41.10 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295008AA2.04) Ability to determine and/or interpret the following as they apply to (APE 8) HIGH REACTOR WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Heatup rate</t>
+  </si>
+  <si>
+    <t>(295017) (APE 17) ABNORMAL OFFSITE RELEASE RATE (G2.2.18) EQUIPMENT CONTROL Knowledge of the process for managing maintenance activities during shutdown operations, such as risk assessments and work prioritization (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(211000) (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM (G2.4.35) EMERGENCY PROCEDURES / PLAN Knowledge of nonlicensed operator responsibilities during an emergency (CFR: 41.10 / 43.1/ 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(300000A2.02) Ability to (a) predict the impacts of the following on the (SF8 IA) INSTRUMENT AIR SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Component cooling water system malfunction</t>
+  </si>
+  <si>
+    <t>(215004) (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM  (G2.1.43) CONDUCT OF OPERATIONS Ability to use an online power distribution monitoring system and/or procedures to determine the effects on reactivity of plant changes, such as RCS temperature, secondary plant, or fuel depletion (CFR: 41.10 / 43.6 / 45.6)</t>
+  </si>
+  <si>
+    <t>(209001A2.12) Ability to (a) predict the impacts of the following on the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Inadvertent system initiation</t>
+  </si>
+  <si>
+    <t>(215003) (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM (G2.1.18) CONDUCT OF OPERATIONS Ability to make accurate, clear, and concise logs, records, status boards, and reports (CFR: 41.10 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(259001A2.05) Ability to (a) predict the impacts of the following on the (SF2 FWS) FEEDWATER SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of Instrument air system</t>
+  </si>
+  <si>
+    <t>(290002) (SF4 RVI) REACTOR VESSEL INTERNALS (G2.3.11) RADIATION CONTROL Ability to control radiation releases (CFR: 41.11 / 43.4 / 45.10)</t>
+  </si>
+  <si>
+    <t>(245000A2.01) Ability to (a) predict the impacts of the following on the (SF4 MTGEN) MAIN TURBINE GENERATOR AND AUXILIARY SYSTEMS and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Turbine trip</t>
+  </si>
+  <si>
+    <t>(G2.1.31) CONDUCT OF OPERATIONS Ability to locate control room switches, controls, and indications, and to determine that they correctly reflect the desired plant lineup (CFR: 41.10 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.1.9) CONDUCT OF OPERATIONS Ability to direct licensed personnel activities inside the control room (SRO Only) (CFR: 43.1 / 45.5 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.20) EQUIPMENT CONTROL Knowledge of the process for managing troubleshooting activities (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.40) EQUIPMENT CONTROL Ability to apply technical specifications with action statements of less than or equal to 1 hour (CFR: 41.10 / 43.2 / 43.5 / 45.3)</t>
   </si>
   <si>
     <t>(G2.3.5) RADIATION CONTROL Ability to use radiation monitoring systems, such as fixed radiation monitors and alarms or personnel monitoring equipment (CFR: 41.11 / 41.12 / 43.4 / 45.9)</t>
   </si>
   <si>
-    <t>(G2.4.46) EMERGENCY PROCEDURES / PLAN Ability to verify that the alarms are consistent with the plant conditions (CFR: 41.10 / 43.5 / 45.3 / 45.12)</t>
-  </si>
-  <si>
-    <t>(292006K1.04) FISSION PRODUCT POISONS (CFR: 41.1) Describe the removal of xenon-135</t>
-  </si>
-  <si>
-    <t>(292002K1.11) NEUTRON LIFE CYCLE (CFR: 41.1) Define reactivity</t>
-  </si>
-  <si>
-    <t>(292007K1.01) FUEL DEPLETION AND BURNABLE POISONS (CFR: 41.1) Define burnable poison and state its use in the reactor</t>
-  </si>
-  <si>
-    <t>(293006K1.30) FLUID STATICS AND DYNAMICS (CFR: 41.14) Describe the methods of controlling system flow rates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(293009K1.16) CORE THERMAL LIMITS (CFR: 41.14) (MAPLHGR) Discuss how changes in the heat generation rate </t>
-  </si>
-  <si>
-    <t>(293010K1.04) BRITTLE FRACTURE AND VESSEL THERMAL STRESS (CFR: 41.14) State how the possibility of brittle fracture is minimized by operating limitations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(600000AA2.13) Ability to determine and/or interpret the following as they apply to (APE 24) PLANT FIRE ON SITE: (CFR: 41.10 / 43.5 / 45.13) Need for emergency plant shutdown </t>
-  </si>
-  <si>
-    <t>(295019) (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR (G2.4.45) EMERGENCY PROCEDURES / PLAN Ability to prioritize and interpret the significance of each annunciator or alarm (CFR: 41.10 / 43.5 / 45.3 / 45.12)</t>
-  </si>
-  <si>
-    <t>(295004AA2.03) Ability to determine and/or interpret the following as they apply to (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER: (CFR: 41.10 / 43.5 / 45.13) Battery parameters</t>
-  </si>
-  <si>
-    <t>(295031) (EPE 8) REACTOR LOW WATER LEVEL (G2.1.35) CONDUCT OF OPERATIONS Knowledge of the fuel handling responsibilities of SROs (SRO Only) (CFR: 43.7)</t>
-  </si>
-  <si>
-    <t>(295026EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE: (CFR: 41.10 / 43.5 / 45.13) Suppression pool water temperature</t>
-  </si>
-  <si>
-    <t>(295006) (APE 6) SCRAM (G2.2.40) EQUIPMENT CONTROL Ability to apply technical specifications with action statements of less than or equal to 1 hour (CFR: 41.10 / 43.2 / 43.5 / 45.3)</t>
-  </si>
-  <si>
-    <t>(700000AA2.05) Ability to determine and/or interpret the following as they apply to (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES: (CFR: 41.5 / 43.5 / 45.5 / 45.7 / 45.8) Operational status of offsite circuit</t>
-  </si>
-  <si>
-    <t>(500000EA2.02) Ability to determine and/or interpret the following as they apply to (EPE 16) HIGH CONTAINMENT HYDROGEN CONCENTRATION: (CFR: 41.10 / 43.5 / 45.13) Oxygen monitoring availability</t>
-  </si>
-  <si>
-    <t>(295033) (EPE 10) HIGH SECONDARY CONTAINMENT AREA RADIATION LEVELS (G2.4.35) EMERGENCY PROCEDURES / PLAN Knowledge of nonlicensed operator responsibilities during an emergency (CFR: 41.10 / 43.1/ 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295011AA2.03) Ability to determine and/or interpret the following as they apply to (APE 11) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.10 / 43.5 / 45.13) Containment humidity</t>
-  </si>
-  <si>
-    <t>(217000A2.07) Ability to (a) predict the impacts of the following on the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of lube oil</t>
-  </si>
-  <si>
-    <t>(218000) (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM (G2.3.11) RADIATION CONTROL Ability to control radiation releases (CFR: 41.11 / 43.4 / 45.10)</t>
-  </si>
-  <si>
-    <t>(203000A2.11) Ability to (a) predict the impacts of the following on the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Motor-operated valve failures</t>
-  </si>
-  <si>
-    <t>(223002) (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF (G2.2.37) EQUIPMENT CONTROL Ability to determine operability or availability of safety-related equipment (SRO Only) (CFR: 43.2 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(264000A2.13) Ability to (a) predict the impacts of the following on the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of starting air</t>
-  </si>
-  <si>
-    <t>(230000) (SF5 RHR SPS) RHR/LPCI: TORUS/SUPPRESSION POOL SPRAY MODE (G2.4.37) EMERGENCY PROCEDURES / PLAN Knowledge of the lines of authority during implementation of the emergency plan implementing procedures (CFR: 41.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(204000A2.15) Ability to (a) predict the impacts of the following on the (SF2 RWCU) REACTOR WATER CLEANUP SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Cleanup demineralizer high differential pressure</t>
-  </si>
-  <si>
-    <t>(239003) (SF9 MSVLCS) MAIN STEAM ISOLATION VALVE LEAKAGE CONTROL SYSTEM  (G2.1.32) CONDUCT OF OPERATIONS Ability to explain and apply system precautions, limitations, notes, or cautions (CFR: 41.10 / 43.2 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.1.28) CONDUCT OF OPERATIONS Knowledge of the purpose and function of major system components and controls (CFR: 41.7)</t>
-  </si>
-  <si>
-    <t>(G2.1.18) CONDUCT OF OPERATIONS Ability to make accurate, clear, and concise logs, records, status boards, and reports (CFR: 41.10 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.6) EQUIPMENT CONTROL Knowledge of the process for making changes to procedures (CFR: 41.10 / 43.3 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.13) EQUIPMENT CONTROL Knowledge of tagging and clearance procedures (CFR: 41.10 / 43.1 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.3.12) RADIATION CONTROL Knowledge of radiological safety principles and procedures pertaining to licensed operator duties, such as response to radiation monitor alarms, containment entry requirements, fuel handling responsibilities, access to locked high-radiation areas, or alignment of filters (CFR: 41.12 / 43.4 / 45.9 / 45.10)</t>
-  </si>
-  <si>
-    <t>(G2.4.52) EMERGENCY PROCEDURES / PLAN Knowledge of the lines of authority during implementation of the emergency plan, emergency plan implementing procedures, emergency operating procedures, or severe accident guidelines (CFR: 41.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.4.29) EMERGENCY PROCEDURES / PLAN Knowledge of the emergency plan implementing procedures (CFR: 41.10 / 43.5 / 45.11)</t>
+    <t>(G2.4.22) EMERGENCY PROCEDURES / PLAN Knowledge of the bases for prioritizing safety functions during abnormal/emergency operations (CFR: 41.7 / 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.4.16) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures implementation hierarchy and coordination with other support procedures or guidelines such as, operating procedures, abnormal operating procedures, or severe accident management guidelines (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>K1</t>
+  </si>
+  <si>
+    <t>K2</t>
   </si>
   <si>
     <t>A2</t>
   </si>
   <si>
+    <t>K3</t>
+  </si>
+  <si>
     <t>A1</t>
   </si>
   <si>
     <t>G</t>
   </si>
   <si>
-    <t>K3</t>
-  </si>
-  <si>
-    <t>K2</t>
-  </si>
-  <si>
-    <t>K1</t>
+    <t>K5</t>
+  </si>
+  <si>
+    <t>K4</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>K6</t>
   </si>
   <si>
     <t>A3</t>
   </si>
   <si>
-    <t>K4</t>
-  </si>
-  <si>
-    <t>K5</t>
-  </si>
-  <si>
-    <t>A4</t>
-  </si>
-  <si>
-    <t>K6</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -385,217 +385,217 @@
     <t>T</t>
   </si>
   <si>
+    <t>295037</t>
+  </si>
+  <si>
+    <t>295016</t>
+  </si>
+  <si>
+    <t>295005</t>
+  </si>
+  <si>
+    <t>295026</t>
+  </si>
+  <si>
     <t>600000</t>
   </si>
   <si>
+    <t>295004</t>
+  </si>
+  <si>
+    <t>295031</t>
+  </si>
+  <si>
+    <t>295018</t>
+  </si>
+  <si>
+    <t>295006</t>
+  </si>
+  <si>
+    <t>295021</t>
+  </si>
+  <si>
+    <t>295003</t>
+  </si>
+  <si>
+    <t>295024</t>
+  </si>
+  <si>
+    <t>295025</t>
+  </si>
+  <si>
+    <t>295027</t>
+  </si>
+  <si>
     <t>295019</t>
   </si>
   <si>
-    <t>295004</t>
-  </si>
-  <si>
-    <t>295031</t>
-  </si>
-  <si>
-    <t>295026</t>
-  </si>
-  <si>
-    <t>295006</t>
+    <t>295023</t>
   </si>
   <si>
     <t>700000</t>
   </si>
   <si>
-    <t>295027</t>
-  </si>
-  <si>
-    <t>295018</t>
-  </si>
-  <si>
-    <t>295005</t>
-  </si>
-  <si>
-    <t>295025</t>
+    <t>295001</t>
   </si>
   <si>
     <t>295030</t>
   </si>
   <si>
-    <t>295001</t>
-  </si>
-  <si>
     <t>295038</t>
   </si>
   <si>
-    <t>295024</t>
-  </si>
-  <si>
-    <t>295021</t>
-  </si>
-  <si>
-    <t>295023</t>
-  </si>
-  <si>
-    <t>295003</t>
-  </si>
-  <si>
-    <t>295037</t>
-  </si>
-  <si>
-    <t>295016</t>
-  </si>
-  <si>
     <t>295014</t>
   </si>
   <si>
+    <t>295013</t>
+  </si>
+  <si>
+    <t>295020</t>
+  </si>
+  <si>
+    <t>295033</t>
+  </si>
+  <si>
+    <t>295029</t>
+  </si>
+  <si>
+    <t>295032</t>
+  </si>
+  <si>
+    <t>203000</t>
+  </si>
+  <si>
+    <t>262002</t>
+  </si>
+  <si>
+    <t>400000</t>
+  </si>
+  <si>
+    <t>510000</t>
+  </si>
+  <si>
+    <t>211000</t>
+  </si>
+  <si>
+    <t>300000</t>
+  </si>
+  <si>
+    <t>215004</t>
+  </si>
+  <si>
+    <t>209001</t>
+  </si>
+  <si>
+    <t>215003</t>
+  </si>
+  <si>
+    <t>215005</t>
+  </si>
+  <si>
+    <t>239002</t>
+  </si>
+  <si>
+    <t>261000</t>
+  </si>
+  <si>
+    <t>217000</t>
+  </si>
+  <si>
+    <t>263000</t>
+  </si>
+  <si>
+    <t>218000</t>
+  </si>
+  <si>
+    <t>209002</t>
+  </si>
+  <si>
+    <t>212000</t>
+  </si>
+  <si>
+    <t>223002</t>
+  </si>
+  <si>
+    <t>205000</t>
+  </si>
+  <si>
+    <t>264000</t>
+  </si>
+  <si>
+    <t>259002</t>
+  </si>
+  <si>
+    <t>262001</t>
+  </si>
+  <si>
+    <t>230000</t>
+  </si>
+  <si>
+    <t>201005</t>
+  </si>
+  <si>
+    <t>226001</t>
+  </si>
+  <si>
+    <t>510001</t>
+  </si>
+  <si>
+    <t>201001</t>
+  </si>
+  <si>
+    <t>216000</t>
+  </si>
+  <si>
+    <t>271000</t>
+  </si>
+  <si>
+    <t>256000</t>
+  </si>
+  <si>
+    <t>239003</t>
+  </si>
+  <si>
+    <t>215001</t>
+  </si>
+  <si>
+    <t>204000</t>
+  </si>
+  <si>
+    <t>292003</t>
+  </si>
+  <si>
+    <t>292007</t>
+  </si>
+  <si>
+    <t>292004</t>
+  </si>
+  <si>
+    <t>293009</t>
+  </si>
+  <si>
+    <t>293007</t>
+  </si>
+  <si>
+    <t>293005</t>
+  </si>
+  <si>
+    <t>500000</t>
+  </si>
+  <si>
+    <t>295008</t>
+  </si>
+  <si>
     <t>295017</t>
   </si>
   <si>
-    <t>295009</t>
-  </si>
-  <si>
-    <t>295034</t>
-  </si>
-  <si>
-    <t>295029</t>
-  </si>
-  <si>
-    <t>295002</t>
-  </si>
-  <si>
-    <t>211000</t>
-  </si>
-  <si>
-    <t>510000</t>
-  </si>
-  <si>
-    <t>215004</t>
-  </si>
-  <si>
-    <t>262002</t>
-  </si>
-  <si>
-    <t>217000</t>
-  </si>
-  <si>
-    <t>218000</t>
-  </si>
-  <si>
-    <t>203000</t>
-  </si>
-  <si>
-    <t>223002</t>
-  </si>
-  <si>
-    <t>264000</t>
-  </si>
-  <si>
-    <t>239002</t>
-  </si>
-  <si>
-    <t>263000</t>
-  </si>
-  <si>
-    <t>209001</t>
-  </si>
-  <si>
-    <t>205000</t>
-  </si>
-  <si>
-    <t>400000</t>
-  </si>
-  <si>
-    <t>262001</t>
-  </si>
-  <si>
-    <t>215003</t>
-  </si>
-  <si>
-    <t>212000</t>
-  </si>
-  <si>
-    <t>259002</t>
-  </si>
-  <si>
-    <t>261000</t>
-  </si>
-  <si>
-    <t>300000</t>
-  </si>
-  <si>
-    <t>215005</t>
-  </si>
-  <si>
-    <t>209002</t>
-  </si>
-  <si>
-    <t>510001</t>
-  </si>
-  <si>
-    <t>290001</t>
-  </si>
-  <si>
-    <t>234000</t>
+    <t>259001</t>
+  </si>
+  <si>
+    <t>290002</t>
   </si>
   <si>
     <t>245000</t>
-  </si>
-  <si>
-    <t>226001</t>
-  </si>
-  <si>
-    <t>271000</t>
-  </si>
-  <si>
-    <t>201005</t>
-  </si>
-  <si>
-    <t>256000</t>
-  </si>
-  <si>
-    <t>290003</t>
-  </si>
-  <si>
-    <t>201003</t>
-  </si>
-  <si>
-    <t>202002</t>
-  </si>
-  <si>
-    <t>292006</t>
-  </si>
-  <si>
-    <t>292002</t>
-  </si>
-  <si>
-    <t>292007</t>
-  </si>
-  <si>
-    <t>293006</t>
-  </si>
-  <si>
-    <t>293009</t>
-  </si>
-  <si>
-    <t>293010</t>
-  </si>
-  <si>
-    <t>500000</t>
-  </si>
-  <si>
-    <t>295033</t>
-  </si>
-  <si>
-    <t>295011</t>
-  </si>
-  <si>
-    <t>230000</t>
-  </si>
-  <si>
-    <t>204000</t>
-  </si>
-  <si>
-    <t>239003</t>
   </si>
 </sst>
 </file>
@@ -984,7 +984,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>3.3</v>
+        <v>4.3</v>
       </c>
       <c r="D2" t="s">
         <v>105</v>
@@ -1001,7 +1001,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="D3" t="s">
         <v>106</v>
@@ -1018,7 +1018,7 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="D4" t="s">
         <v>107</v>
@@ -1035,7 +1035,7 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="D5" t="s">
         <v>108</v>
@@ -1052,7 +1052,7 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="D6" t="s">
         <v>109</v>
@@ -1069,7 +1069,7 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="D7" t="s">
         <v>110</v>
@@ -1086,7 +1086,7 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>3.4</v>
+        <v>4.7</v>
       </c>
       <c r="D8" t="s">
         <v>105</v>
@@ -1103,7 +1103,7 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="D9" t="s">
         <v>106</v>
@@ -1137,7 +1137,7 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="D11" t="s">
         <v>108</v>
@@ -1154,7 +1154,7 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>4.4</v>
+        <v>3.8</v>
       </c>
       <c r="D12" t="s">
         <v>109</v>
@@ -1171,7 +1171,7 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>3.9</v>
+        <v>2.9</v>
       </c>
       <c r="D13" t="s">
         <v>110</v>
@@ -1205,7 +1205,7 @@
         <v>18</v>
       </c>
       <c r="C15">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="D15" t="s">
         <v>106</v>
@@ -1222,7 +1222,7 @@
         <v>19</v>
       </c>
       <c r="C16">
-        <v>3.1</v>
+        <v>4.1</v>
       </c>
       <c r="D16" t="s">
         <v>107</v>
@@ -1239,7 +1239,7 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17" t="s">
         <v>108</v>
@@ -1256,7 +1256,7 @@
         <v>21</v>
       </c>
       <c r="C18">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="D18" t="s">
         <v>109</v>
@@ -1273,7 +1273,7 @@
         <v>22</v>
       </c>
       <c r="C19">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="D19" t="s">
         <v>110</v>
@@ -1290,7 +1290,7 @@
         <v>23</v>
       </c>
       <c r="C20">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="D20" t="s">
         <v>105</v>
@@ -1307,7 +1307,7 @@
         <v>24</v>
       </c>
       <c r="C21">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="D21" t="s">
         <v>106</v>
@@ -1324,7 +1324,7 @@
         <v>25</v>
       </c>
       <c r="C22">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="D22" t="s">
         <v>108</v>
@@ -1341,7 +1341,7 @@
         <v>26</v>
       </c>
       <c r="C23">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="D23" t="s">
         <v>109</v>
@@ -1358,7 +1358,7 @@
         <v>27</v>
       </c>
       <c r="C24">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="D24" t="s">
         <v>110</v>
@@ -1375,7 +1375,7 @@
         <v>28</v>
       </c>
       <c r="C25">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="D25" t="s">
         <v>105</v>
@@ -1392,7 +1392,7 @@
         <v>29</v>
       </c>
       <c r="C26">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="D26" t="s">
         <v>106</v>
@@ -1409,7 +1409,7 @@
         <v>30</v>
       </c>
       <c r="C27">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="D27" t="s">
         <v>107</v>
@@ -1426,7 +1426,7 @@
         <v>31</v>
       </c>
       <c r="C28">
-        <v>4.1</v>
+        <v>3.3</v>
       </c>
       <c r="D28" t="s">
         <v>111</v>
@@ -1443,10 +1443,10 @@
         <v>32</v>
       </c>
       <c r="C29">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="D29" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E29" t="s">
         <v>150</v>
@@ -1460,7 +1460,7 @@
         <v>33</v>
       </c>
       <c r="C30">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="D30" t="s">
         <v>108</v>
@@ -1477,10 +1477,10 @@
         <v>34</v>
       </c>
       <c r="C31">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="D31" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E31" t="s">
         <v>152</v>
@@ -1494,7 +1494,7 @@
         <v>35</v>
       </c>
       <c r="C32">
-        <v>2.6</v>
+        <v>3.8</v>
       </c>
       <c r="D32" t="s">
         <v>109</v>
@@ -1511,10 +1511,10 @@
         <v>36</v>
       </c>
       <c r="C33">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="D33" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E33" t="s">
         <v>154</v>
@@ -1528,10 +1528,10 @@
         <v>37</v>
       </c>
       <c r="C34">
-        <v>4.3</v>
+        <v>3</v>
       </c>
       <c r="D34" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="E34" t="s">
         <v>155</v>
@@ -1545,10 +1545,10 @@
         <v>38</v>
       </c>
       <c r="C35">
-        <v>4.1</v>
+        <v>3.4</v>
       </c>
       <c r="D35" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E35" t="s">
         <v>156</v>
@@ -1562,10 +1562,10 @@
         <v>39</v>
       </c>
       <c r="C36">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="D36" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E36" t="s">
         <v>157</v>
@@ -1579,7 +1579,7 @@
         <v>40</v>
       </c>
       <c r="C37">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="D37" t="s">
         <v>115</v>
@@ -1596,10 +1596,10 @@
         <v>41</v>
       </c>
       <c r="C38">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="D38" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E38" t="s">
         <v>159</v>
@@ -1613,7 +1613,7 @@
         <v>42</v>
       </c>
       <c r="C39">
-        <v>4.3</v>
+        <v>3</v>
       </c>
       <c r="D39" t="s">
         <v>111</v>
@@ -1630,10 +1630,10 @@
         <v>43</v>
       </c>
       <c r="C40">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="D40" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E40" t="s">
         <v>161</v>
@@ -1647,7 +1647,7 @@
         <v>44</v>
       </c>
       <c r="C41">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="D41" t="s">
         <v>108</v>
@@ -1667,7 +1667,7 @@
         <v>4.4</v>
       </c>
       <c r="D42" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E42" t="s">
         <v>163</v>
@@ -1681,7 +1681,7 @@
         <v>46</v>
       </c>
       <c r="C43">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="D43" t="s">
         <v>109</v>
@@ -1698,10 +1698,10 @@
         <v>47</v>
       </c>
       <c r="C44">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="D44" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E44" t="s">
         <v>165</v>
@@ -1715,10 +1715,10 @@
         <v>48</v>
       </c>
       <c r="C45">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="D45" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="E45" t="s">
         <v>166</v>
@@ -1735,7 +1735,7 @@
         <v>3</v>
       </c>
       <c r="D46" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E46" t="s">
         <v>167</v>
@@ -1749,10 +1749,10 @@
         <v>50</v>
       </c>
       <c r="C47">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="D47" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E47" t="s">
         <v>168</v>
@@ -1766,7 +1766,7 @@
         <v>51</v>
       </c>
       <c r="C48">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="D48" t="s">
         <v>115</v>
@@ -1783,10 +1783,10 @@
         <v>52</v>
       </c>
       <c r="C49">
-        <v>2.5</v>
+        <v>3.8</v>
       </c>
       <c r="D49" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="E49" t="s">
         <v>170</v>
@@ -1800,7 +1800,7 @@
         <v>53</v>
       </c>
       <c r="C50">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="D50" t="s">
         <v>111</v>
@@ -1817,10 +1817,10 @@
         <v>54</v>
       </c>
       <c r="C51">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="D51" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E51" t="s">
         <v>150</v>
@@ -1834,7 +1834,7 @@
         <v>55</v>
       </c>
       <c r="C52">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="D52" t="s">
         <v>108</v>
@@ -1851,10 +1851,10 @@
         <v>56</v>
       </c>
       <c r="C53">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="D53" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E53" t="s">
         <v>152</v>
@@ -1868,7 +1868,7 @@
         <v>57</v>
       </c>
       <c r="C54">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="D54" t="s">
         <v>115</v>
@@ -1885,10 +1885,10 @@
         <v>58</v>
       </c>
       <c r="C55">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="D55" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E55" t="s">
         <v>172</v>
@@ -1902,7 +1902,7 @@
         <v>59</v>
       </c>
       <c r="C56">
-        <v>3.1</v>
+        <v>4.3</v>
       </c>
       <c r="D56" t="s">
         <v>111</v>
@@ -1919,10 +1919,10 @@
         <v>60</v>
       </c>
       <c r="C57">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="D57" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E57" t="s">
         <v>174</v>
@@ -1953,10 +1953,10 @@
         <v>62</v>
       </c>
       <c r="C59">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="D59" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E59" t="s">
         <v>176</v>
@@ -1970,7 +1970,7 @@
         <v>63</v>
       </c>
       <c r="C60">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="D60" t="s">
         <v>109</v>
@@ -1987,10 +1987,10 @@
         <v>64</v>
       </c>
       <c r="C61">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="D61" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E61" t="s">
         <v>178</v>
@@ -2004,10 +2004,10 @@
         <v>65</v>
       </c>
       <c r="C62">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="D62" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="E62" t="s">
         <v>179</v>
@@ -2021,10 +2021,10 @@
         <v>66</v>
       </c>
       <c r="C63">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="D63" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E63" t="s">
         <v>180</v>
@@ -2038,10 +2038,10 @@
         <v>67</v>
       </c>
       <c r="C64">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="D64" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E64" t="s">
         <v>181</v>
@@ -2055,7 +2055,7 @@
         <v>68</v>
       </c>
       <c r="C65">
-        <v>4.1</v>
+        <v>2.8</v>
       </c>
       <c r="D65" t="s">
         <v>117</v>
@@ -2072,7 +2072,7 @@
         <v>69</v>
       </c>
       <c r="C66">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="D66" t="s">
         <v>117</v>
@@ -2089,7 +2089,7 @@
         <v>70</v>
       </c>
       <c r="C67">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="D67" t="s">
         <v>118</v>
@@ -2106,7 +2106,7 @@
         <v>71</v>
       </c>
       <c r="C68">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="D68" t="s">
         <v>118</v>
@@ -2123,7 +2123,7 @@
         <v>72</v>
       </c>
       <c r="C69">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="D69" t="s">
         <v>119</v>
@@ -2140,7 +2140,7 @@
         <v>73</v>
       </c>
       <c r="C70">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="D70" t="s">
         <v>120</v>
@@ -2157,7 +2157,7 @@
         <v>74</v>
       </c>
       <c r="C71">
-        <v>2.9</v>
+        <v>3.7</v>
       </c>
       <c r="D71" t="s">
         <v>121</v>
@@ -2174,7 +2174,7 @@
         <v>75</v>
       </c>
       <c r="C72">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="D72" t="s">
         <v>121</v>
@@ -2191,7 +2191,7 @@
         <v>76</v>
       </c>
       <c r="C73">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="D73" t="s">
         <v>121</v>
@@ -2208,7 +2208,7 @@
         <v>77</v>
       </c>
       <c r="C74">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="D74" t="s">
         <v>122</v>
@@ -2225,7 +2225,7 @@
         <v>78</v>
       </c>
       <c r="C75">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="D75" t="s">
         <v>122</v>
@@ -2242,7 +2242,7 @@
         <v>79</v>
       </c>
       <c r="C76">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="D76" t="s">
         <v>122</v>
@@ -2259,10 +2259,10 @@
         <v>80</v>
       </c>
       <c r="C77">
-        <v>3.8</v>
+        <v>4.4</v>
       </c>
       <c r="D77" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E77" t="s">
         <v>123</v>
@@ -2276,7 +2276,7 @@
         <v>81</v>
       </c>
       <c r="C78">
-        <v>4.3</v>
+        <v>3.7</v>
       </c>
       <c r="D78" t="s">
         <v>107</v>
@@ -2293,10 +2293,10 @@
         <v>82</v>
       </c>
       <c r="C79">
-        <v>3.7</v>
+        <v>4.3</v>
       </c>
       <c r="D79" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E79" t="s">
         <v>125</v>
@@ -2327,10 +2327,10 @@
         <v>84</v>
       </c>
       <c r="C81">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="D81" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E81" t="s">
         <v>127</v>
@@ -2344,7 +2344,7 @@
         <v>85</v>
       </c>
       <c r="C82">
-        <v>4.7</v>
+        <v>4.1</v>
       </c>
       <c r="D82" t="s">
         <v>107</v>
@@ -2361,10 +2361,10 @@
         <v>86</v>
       </c>
       <c r="C83">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="D83" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E83" t="s">
         <v>129</v>
@@ -2378,10 +2378,10 @@
         <v>87</v>
       </c>
       <c r="C84">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="D84" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E84" t="s">
         <v>188</v>
@@ -2395,7 +2395,7 @@
         <v>88</v>
       </c>
       <c r="C85">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="D85" t="s">
         <v>107</v>
@@ -2412,10 +2412,10 @@
         <v>89</v>
       </c>
       <c r="C86">
-        <v>2.7</v>
+        <v>3.9</v>
       </c>
       <c r="D86" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E86" t="s">
         <v>190</v>
@@ -2429,10 +2429,10 @@
         <v>90</v>
       </c>
       <c r="C87">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="D87" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E87" t="s">
         <v>153</v>
@@ -2446,7 +2446,7 @@
         <v>91</v>
       </c>
       <c r="C88">
-        <v>4.3</v>
+        <v>3.2</v>
       </c>
       <c r="D88" t="s">
         <v>107</v>
@@ -2463,10 +2463,10 @@
         <v>92</v>
       </c>
       <c r="C89">
-        <v>3.6</v>
+        <v>4.3</v>
       </c>
       <c r="D89" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E89" t="s">
         <v>155</v>
@@ -2480,7 +2480,7 @@
         <v>93</v>
       </c>
       <c r="C90">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="D90" t="s">
         <v>107</v>
@@ -2497,10 +2497,10 @@
         <v>94</v>
       </c>
       <c r="C91">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="D91" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E91" t="s">
         <v>157</v>
@@ -2514,7 +2514,7 @@
         <v>95</v>
       </c>
       <c r="C92">
-        <v>4.1</v>
+        <v>3.3</v>
       </c>
       <c r="D92" t="s">
         <v>107</v>
@@ -2531,10 +2531,10 @@
         <v>96</v>
       </c>
       <c r="C93">
-        <v>2.9</v>
+        <v>4.3</v>
       </c>
       <c r="D93" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E93" t="s">
         <v>192</v>
@@ -2548,7 +2548,7 @@
         <v>97</v>
       </c>
       <c r="C94">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="D94" t="s">
         <v>107</v>
@@ -2565,7 +2565,7 @@
         <v>98</v>
       </c>
       <c r="C95">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="D95" t="s">
         <v>117</v>
@@ -2582,7 +2582,7 @@
         <v>99</v>
       </c>
       <c r="C96">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="D96" t="s">
         <v>117</v>
@@ -2599,7 +2599,7 @@
         <v>100</v>
       </c>
       <c r="C97">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="D97" t="s">
         <v>118</v>
@@ -2616,7 +2616,7 @@
         <v>101</v>
       </c>
       <c r="C98">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="D98" t="s">
         <v>118</v>
@@ -2633,7 +2633,7 @@
         <v>102</v>
       </c>
       <c r="C99">
-        <v>3.7</v>
+        <v>2.9</v>
       </c>
       <c r="D99" t="s">
         <v>119</v>
@@ -2650,7 +2650,7 @@
         <v>103</v>
       </c>
       <c r="C100">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="D100" t="s">
         <v>120</v>
